--- a/burndown y trabajo de equipo/Sprint 2 Finalizado/Sprint 2 finalizado..xlsx
+++ b/burndown y trabajo de equipo/Sprint 2 Finalizado/Sprint 2 finalizado..xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Cleaver\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Cleaver\Desktop\PROYECTO\SlimeSmasher\burndown y trabajo de equipo\Sprint 2 Finalizado\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="2436" tabRatio="768" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="2436" tabRatio="768" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SPRINT 1 VICTOR QUIROZ" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="58">
   <si>
     <t>SEMANA 1</t>
   </si>
@@ -91,9 +91,6 @@
     <t>SEM 3</t>
   </si>
   <si>
-    <t>SPRINT 1</t>
-  </si>
-  <si>
     <t>Semana 1</t>
   </si>
   <si>
@@ -131,15 +128,6 @@
   </si>
   <si>
     <t>Colisiones[pendiente]</t>
-  </si>
-  <si>
-    <t>arreglando animaciones</t>
-  </si>
-  <si>
-    <t>sprites nuevos</t>
-  </si>
-  <si>
-    <t>limpiando sprites</t>
   </si>
   <si>
     <t>arreglo de IA[pendiente]</t>
@@ -196,10 +184,25 @@
     <t>IA Mesh [Avance de IA]</t>
   </si>
   <si>
-    <t>Arreglar colision arma</t>
+    <t>¿</t>
   </si>
   <si>
-    <t>Hacer union de enemigos</t>
+    <t>Semana 3</t>
+  </si>
+  <si>
+    <t>Arreglando Animaciones [Realizado]</t>
+  </si>
+  <si>
+    <t>sprites nuevos [Realizado]</t>
+  </si>
+  <si>
+    <t>limpiando sprites [Realizado]</t>
+  </si>
+  <si>
+    <t>Arreglar colision arma [Realizado]</t>
+  </si>
+  <si>
+    <t>Hacer union de enemigos [Pendiente]</t>
   </si>
 </sst>
 </file>
@@ -315,13 +318,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -334,9 +331,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3571,10 +3574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P24"/>
+  <dimension ref="B1:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3584,64 +3587,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="G1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="J3" s="11" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="J3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="13"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
       <c r="J4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
@@ -3649,201 +3652,201 @@
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="12"/>
       <c r="J5" s="14" t="s">
         <v>1</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8" t="s">
+      <c r="N5" s="12"/>
+      <c r="O5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="8"/>
+      <c r="P5" s="12"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13">
+        <v>3</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13">
+        <v>3</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13">
+        <v>5</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13">
+        <v>5</v>
+      </c>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
-        <v>3</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9">
-        <v>3</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="J6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13">
         <v>5</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9">
+      <c r="H9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9">
-        <v>5</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
         <f>SUM(E6:F10)</f>
         <v>6</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12">
         <f>SUM(G6:H10)</f>
         <v>10</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="J11" s="8" t="s">
+      <c r="H11" s="12"/>
+      <c r="J11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8">
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12">
         <f>SUM(M6:N10)</f>
         <v>5</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8">
+      <c r="N11" s="12"/>
+      <c r="O11" s="12">
         <f>SUM(O6:P10)</f>
         <v>5</v>
       </c>
-      <c r="P11" s="8"/>
+      <c r="P11" s="12"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="J13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="J13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
       <c r="J14" s="1"/>
       <c r="K14" s="4" t="s">
         <v>16</v>
@@ -3867,14 +3870,14 @@
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="12"/>
       <c r="J15" s="4" t="s">
         <v>8</v>
       </c>
@@ -3891,23 +3894,23 @@
         <v>0</v>
       </c>
       <c r="O15" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9">
+      <c r="B16" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13">
         <v>4</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9">
-        <v>19</v>
-      </c>
-      <c r="H16" s="9"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13">
+        <v>5</v>
+      </c>
+      <c r="H16" s="13"/>
       <c r="J16" s="4" t="s">
         <v>9</v>
       </c>
@@ -3928,93 +3931,162 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9">
+      <c r="B17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13">
         <v>1</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13">
         <v>1</v>
       </c>
-      <c r="H17" s="9"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12">
         <f>SUM(E16:F23)</f>
         <v>5</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8">
+      <c r="F24" s="12"/>
+      <c r="G24" s="12">
         <f>SUM(G16:H23)</f>
-        <v>20</v>
-      </c>
-      <c r="H24" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="J3:P3"/>
@@ -4031,70 +4103,6 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4105,8 +4113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4115,64 +4123,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="G1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="J4" s="11" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="J4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="13"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
       <c r="J5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
@@ -4180,189 +4188,189 @@
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="12"/>
       <c r="J6" s="14" t="s">
         <v>1</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8" t="s">
+      <c r="N6" s="12"/>
+      <c r="O6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="8"/>
+      <c r="P6" s="12"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13">
+        <v>2</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13">
+        <v>2</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="J7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13">
+        <v>5</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13">
+        <v>7</v>
+      </c>
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13">
         <v>2</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13">
         <v>2</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="J7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9">
+      <c r="H8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="15"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9">
-        <v>7</v>
-      </c>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
-        <v>2</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9">
-        <v>2</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
         <f>SUM(E7:F11)</f>
         <v>4</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12">
         <f>SUM(G7:H11)</f>
         <v>4</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="J12" s="8" t="s">
+      <c r="H12" s="12"/>
+      <c r="J12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8">
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12">
         <f>SUM(M7:N11)</f>
         <v>5</v>
       </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8">
+      <c r="N12" s="12"/>
+      <c r="O12" s="12">
         <f>SUM(O7:P11)</f>
         <v>7</v>
       </c>
-      <c r="P12" s="8"/>
+      <c r="P12" s="12"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="J14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="J14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
       <c r="J15" s="1"/>
       <c r="K15" s="4" t="s">
         <v>16</v>
@@ -4386,14 +4394,14 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
+      <c r="F16" s="12"/>
+      <c r="G16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="12"/>
       <c r="J16" s="4" t="s">
         <v>8</v>
       </c>
@@ -4414,19 +4422,19 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9">
+      <c r="B17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13">
         <v>5</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13">
         <v>5</v>
       </c>
-      <c r="H17" s="9"/>
+      <c r="H17" s="13"/>
       <c r="J17" s="4" t="s">
         <v>9</v>
       </c>
@@ -4447,131 +4455,134 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9">
+      <c r="B18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13">
         <v>2</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="10">
+      <c r="B19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="15">
         <v>2</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12">
         <f>SUM(E17:F24)</f>
         <v>5</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8">
+      <c r="F25" s="12"/>
+      <c r="G25" s="12">
         <f>SUM(G17:H24)</f>
         <v>9</v>
       </c>
-      <c r="H25" s="8"/>
+      <c r="H25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
@@ -4585,41 +4596,38 @@
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="M11:N11"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="K5:P5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4630,8 +4638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4640,64 +4648,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="G1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="J3" s="11" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="J3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="13"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
       <c r="J4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
@@ -4705,201 +4713,201 @@
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="12"/>
       <c r="J5" s="14" t="s">
         <v>1</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8" t="s">
+      <c r="N5" s="12"/>
+      <c r="O5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="8"/>
+      <c r="P5" s="12"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13">
+        <v>3</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13">
+        <v>3</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13">
+        <v>5</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13">
+        <v>5</v>
+      </c>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
-        <v>3</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9">
-        <v>3</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="J6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13">
         <v>5</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9">
+      <c r="H9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9">
-        <v>5</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
         <f>SUM(E6:F10)</f>
         <v>6</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12">
         <f>SUM(G6:H10)</f>
         <v>10</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="J11" s="8" t="s">
+      <c r="H11" s="12"/>
+      <c r="J11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8">
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12">
         <f>SUM(M6:N10)</f>
         <v>5</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8">
+      <c r="N11" s="12"/>
+      <c r="O11" s="12">
         <f>SUM(O6:P10)</f>
         <v>5</v>
       </c>
-      <c r="P11" s="8"/>
+      <c r="P11" s="12"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="J13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="J13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
         <v>16</v>
@@ -4923,14 +4931,14 @@
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="12"/>
       <c r="J15" s="4" t="s">
         <v>8</v>
       </c>
@@ -4951,19 +4959,19 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9">
+      <c r="B16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13">
         <v>4</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9">
+      <c r="F16" s="13"/>
+      <c r="G16" s="13">
         <v>3</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="13"/>
       <c r="J16" s="4" t="s">
         <v>9</v>
       </c>
@@ -4984,94 +4992,158 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9">
+      <c r="B17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13">
         <v>1</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13">
         <v>0</v>
       </c>
-      <c r="H17" s="9"/>
+      <c r="H17" s="13"/>
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12">
         <f>SUM(E16:F23)</f>
         <v>5</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8">
+      <c r="F24" s="12"/>
+      <c r="G24" s="12">
         <f>SUM(G16:H23)</f>
         <v>3</v>
       </c>
-      <c r="H24" s="8"/>
+      <c r="H24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="J3:P3"/>
@@ -5088,14 +5160,502 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:N7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="J3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="11"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="J4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="J5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="12"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13">
+        <v>2</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13">
+        <v>2</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13">
+        <v>4</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13">
+        <v>2</v>
+      </c>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13">
+        <v>3</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13">
+        <v>3</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13">
+        <v>1</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13">
+        <v>1</v>
+      </c>
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="15">
+        <v>2</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="J8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12"/>
+      <c r="O8" s="15">
+        <v>2</v>
+      </c>
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
+        <f>SUM(E6:F10)</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12">
+        <f>SUM(G6:H10)</f>
+        <v>7</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="J11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12">
+        <f>SUM(M6:N10)</f>
+        <v>5</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12">
+        <f>SUM(O6:P10)</f>
+        <v>5</v>
+      </c>
+      <c r="P11" s="12"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="J13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="J15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="1">
+        <v>15</v>
+      </c>
+      <c r="L15" s="1">
+        <f>K15-G11</f>
+        <v>8</v>
+      </c>
+      <c r="M15" s="1">
+        <v>3</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13">
+        <v>5</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13">
+        <v>6</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="J16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="1">
+        <v>15</v>
+      </c>
+      <c r="L16" s="1">
+        <v>10</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="15"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12">
+        <f>SUM(E16:F23)</f>
+        <v>5</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12">
+        <f>SUM(G16:H23)</f>
+        <v>6</v>
+      </c>
+      <c r="H24" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="80">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:F8"/>
@@ -5108,502 +5668,14 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="J3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="13"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="J4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="J5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
-        <v>2</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9">
-        <v>2</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="J6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9">
-        <v>4</v>
-      </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9">
-        <v>2</v>
-      </c>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
-        <v>3</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9">
-        <v>3</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="J7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9">
-        <v>1</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9">
-        <v>1</v>
-      </c>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="10">
-        <v>2</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="J8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="10">
-        <v>2</v>
-      </c>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8">
-        <f>SUM(E6:F10)</f>
-        <v>5</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8">
-        <f>SUM(G6:H10)</f>
-        <v>7</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="J11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8">
-        <f>SUM(M6:N10)</f>
-        <v>5</v>
-      </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8">
-        <f>SUM(O6:P10)</f>
-        <v>5</v>
-      </c>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="J13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="J15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="1">
-        <v>15</v>
-      </c>
-      <c r="L15" s="1">
-        <f>K15-G11</f>
-        <v>8</v>
-      </c>
-      <c r="M15" s="1">
-        <v>3</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9">
-        <v>5</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9">
-        <v>6</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="J16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="1">
-        <v>15</v>
-      </c>
-      <c r="L16" s="1">
-        <v>10</v>
-      </c>
-      <c r="M16" s="1">
-        <v>5</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8">
-        <f>SUM(E16:F23)</f>
-        <v>5</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8">
-        <f>SUM(G16:H23)</f>
-        <v>6</v>
-      </c>
-      <c r="H24" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="80">
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="J3:P3"/>
@@ -5620,14 +5692,481 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:N7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="J3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="11"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="J4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="J5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="12"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13">
+        <v>3</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13">
+        <v>3</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13">
+        <v>5</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13">
+        <v>5</v>
+      </c>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13">
+        <v>2</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13">
+        <v>2</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="15"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
+        <f>SUM(E6:F10)</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12">
+        <f>SUM(G6:H10)</f>
+        <v>5</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="J11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12">
+        <f>SUM(M6:N10)</f>
+        <v>5</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12">
+        <f>SUM(O6:P10)</f>
+        <v>5</v>
+      </c>
+      <c r="P11" s="12"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="J13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="J15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="1">
+        <v>15</v>
+      </c>
+      <c r="L15" s="1">
+        <f>K15-G11</f>
+        <v>10</v>
+      </c>
+      <c r="M15" s="1">
+        <v>5</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="J16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="1">
+        <v>15</v>
+      </c>
+      <c r="L16" s="1">
+        <v>10</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13">
+        <v>5</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13">
+        <v>5</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="15"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12">
+        <f>SUM(E16:F23)</f>
+        <v>5</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12">
+        <f>SUM(G16:H23)</f>
+        <v>5</v>
+      </c>
+      <c r="H24" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="80">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:F8"/>
@@ -5640,481 +6179,14 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="J3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="13"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="J4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="J5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
-        <v>3</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9">
-        <v>3</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="J6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9">
-        <v>5</v>
-      </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9">
-        <v>5</v>
-      </c>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
-        <v>2</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9">
-        <v>2</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8">
-        <f>SUM(E6:F10)</f>
-        <v>5</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8">
-        <f>SUM(G6:H10)</f>
-        <v>5</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="J11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8">
-        <f>SUM(M6:N10)</f>
-        <v>5</v>
-      </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8">
-        <f>SUM(O6:P10)</f>
-        <v>5</v>
-      </c>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="J13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="J15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="1">
-        <v>15</v>
-      </c>
-      <c r="L15" s="1">
-        <f>K15-G11</f>
-        <v>10</v>
-      </c>
-      <c r="M15" s="1">
-        <v>5</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="J16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="1">
-        <v>15</v>
-      </c>
-      <c r="L16" s="1">
-        <v>10</v>
-      </c>
-      <c r="M16" s="1">
-        <v>5</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9">
-        <v>5</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9">
-        <v>5</v>
-      </c>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8">
-        <f>SUM(E16:F23)</f>
-        <v>5</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8">
-        <f>SUM(G16:H23)</f>
-        <v>5</v>
-      </c>
-      <c r="H24" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="80">
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="J3:P3"/>
     <mergeCell ref="G1:K2"/>
@@ -6131,70 +6203,6 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6205,8 +6213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6217,82 +6225,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="F1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="L4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="L4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="9"/>
+      <c r="B6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="1">
         <v>25</v>
       </c>
@@ -6300,32 +6308,32 @@
         <v>36</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="9"/>
+      <c r="G6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="13"/>
       <c r="I6" s="1">
         <v>25</v>
       </c>
       <c r="J6" s="1">
         <v>27</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="9"/>
+      <c r="L6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="13"/>
       <c r="N6" s="1">
         <v>25</v>
       </c>
       <c r="O6" s="1">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="1">
         <v>25</v>
       </c>
@@ -6333,41 +6341,41 @@
         <v>36</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="1">
         <v>25</v>
       </c>
       <c r="J7" s="1">
         <v>27</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="8"/>
+      <c r="M7" s="12"/>
       <c r="N7" s="1">
         <v>25</v>
       </c>
       <c r="O7" s="1">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
@@ -6384,10 +6392,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="12"/>
       <c r="K10" s="1">
         <v>75</v>
       </c>
@@ -6409,13 +6417,13 @@
         <v>0</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="12"/>
       <c r="K11" s="1">
         <f>E7+J7+O7</f>
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
@@ -6435,27 +6443,17 @@
         <v>0</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="12"/>
       <c r="K12" s="1">
         <f>K11-K10</f>
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="F1:K2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
@@ -6464,6 +6462,16 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="F1:K2"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/burndown y trabajo de equipo/Sprint 2 Finalizado/Sprint 2 finalizado..xlsx
+++ b/burndown y trabajo de equipo/Sprint 2 Finalizado/Sprint 2 finalizado..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Cleaver\Desktop\PROYECTO\SlimeSmasher\burndown y trabajo de equipo\Sprint 2 Finalizado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pato\Documents\tesis\SlimeSmasher\burndown y trabajo de equipo\Sprint 2 Finalizado\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CC9686-8067-40B0-AF64-AEFE5D885398}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="2436" tabRatio="768" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="2430" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPRINT 1 VICTOR QUIROZ" sheetId="4" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="SPRINT 1 JEAN NAIL" sheetId="7" r:id="rId5"/>
     <sheet name="SPRINT 1 TRABAJO GRUPAL" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="61">
   <si>
     <t>SEMANA 1</t>
   </si>
@@ -204,11 +205,20 @@
   <si>
     <t>Hacer union de enemigos [Pendiente]</t>
   </si>
+  <si>
+    <t>implementacion de particulas</t>
+  </si>
+  <si>
+    <t>animacion del arma</t>
+  </si>
+  <si>
+    <t>diseño animacion arma</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -318,7 +328,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -331,15 +347,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -408,7 +418,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -566,7 +575,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -593,7 +601,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="66329993"/>
@@ -643,7 +651,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="57483358"/>
@@ -660,7 +668,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -738,7 +745,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -890,7 +896,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -917,7 +922,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="66329993"/>
@@ -967,7 +972,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="57483358"/>
@@ -984,7 +989,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1062,7 +1066,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1220,7 +1223,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1247,7 +1249,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="66329993"/>
@@ -1297,7 +1299,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="57483358"/>
@@ -1314,7 +1316,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1392,7 +1393,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1550,7 +1550,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1577,7 +1576,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="66329993"/>
@@ -1627,7 +1626,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="57483358"/>
@@ -1644,7 +1643,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1722,7 +1720,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1880,7 +1877,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1907,7 +1903,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="66329993"/>
@@ -1957,7 +1953,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="57483358"/>
@@ -1974,7 +1970,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2047,7 +2042,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2073,7 +2067,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2258,7 +2252,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2284,7 +2277,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2322,7 +2315,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="66329993"/>
@@ -2369,7 +2362,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="57483358"/>
@@ -2434,7 +2427,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2464,7 +2457,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3573,280 +3566,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G1" s="8" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="J3" s="9" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="J3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="13"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
       <c r="J4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="8"/>
       <c r="J5" s="14" t="s">
         <v>1</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12" t="s">
+      <c r="N5" s="8"/>
+      <c r="O5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="12"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9">
         <v>3</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9">
         <v>3</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="J6" s="13" t="s">
+      <c r="H6" s="9"/>
+      <c r="J6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13">
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9">
         <v>5</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13">
+      <c r="N6" s="9"/>
+      <c r="O6" s="9">
         <v>5</v>
       </c>
-      <c r="P6" s="13"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9">
         <v>1</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9">
         <v>1</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="H7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8">
         <v>1</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="15">
+      <c r="F8" s="8"/>
+      <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+      <c r="H8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
         <v>1</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9">
         <v>5</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
+      <c r="H9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8">
         <f>SUM(E6:F10)</f>
         <v>6</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8">
         <f>SUM(G6:H10)</f>
         <v>10</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="J11" s="12" t="s">
+      <c r="H11" s="8"/>
+      <c r="J11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12">
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8">
         <f>SUM(M6:N10)</f>
         <v>5</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12">
+      <c r="N11" s="8"/>
+      <c r="O11" s="8">
         <f>SUM(O6:P10)</f>
         <v>5</v>
       </c>
-      <c r="P11" s="12"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+      <c r="P11" s="8"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="J13" s="12" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="J13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
       <c r="J14" s="1"/>
       <c r="K14" s="4" t="s">
         <v>16</v>
@@ -3864,20 +3857,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="8"/>
       <c r="J15" s="4" t="s">
         <v>8</v>
       </c>
@@ -3897,20 +3890,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
         <v>4</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9">
         <v>5</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="9"/>
       <c r="J16" s="4" t="s">
         <v>9</v>
       </c>
@@ -3930,163 +3923,99 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9">
         <v>1</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9">
         <v>1</v>
       </c>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="15"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="12" t="s">
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8">
         <f>SUM(E16:F23)</f>
         <v>5</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8">
         <f>SUM(G16:H23)</f>
         <v>6</v>
       </c>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="8"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:N7"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="J3:P3"/>
@@ -4103,6 +4032,70 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4110,267 +4103,267 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G1" s="8" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="J4" s="9" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="J4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="11"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="13"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
       <c r="J5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="8"/>
       <c r="J6" s="14" t="s">
         <v>1</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12" t="s">
+      <c r="N6" s="8"/>
+      <c r="O6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="12"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9">
         <v>2</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9">
         <v>2</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="J7" s="13" t="s">
+      <c r="H7" s="9"/>
+      <c r="J7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13">
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9">
         <v>5</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13">
+      <c r="N7" s="9"/>
+      <c r="O7" s="9">
         <v>7</v>
       </c>
-      <c r="P7" s="13"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
         <v>2</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9">
         <v>2</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="15"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
+      <c r="H8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8">
         <f>SUM(E7:F11)</f>
         <v>4</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8">
         <f>SUM(G7:H11)</f>
         <v>4</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="J12" s="12" t="s">
+      <c r="H12" s="8"/>
+      <c r="J12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12">
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8">
         <f>SUM(M7:N11)</f>
         <v>5</v>
       </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12">
+      <c r="N12" s="8"/>
+      <c r="O12" s="8">
         <f>SUM(O7:P11)</f>
         <v>7</v>
       </c>
-      <c r="P12" s="12"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+      <c r="P12" s="8"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="J14" s="12" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+      <c r="J14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
       <c r="J15" s="1"/>
       <c r="K15" s="4" t="s">
         <v>16</v>
@@ -4388,20 +4381,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="12"/>
+      <c r="H16" s="8"/>
       <c r="J16" s="4" t="s">
         <v>8</v>
       </c>
@@ -4421,20 +4414,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9">
         <v>5</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9">
         <v>5</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="9"/>
       <c r="J17" s="4" t="s">
         <v>9</v>
       </c>
@@ -4454,135 +4447,137 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
         <v>2</v>
       </c>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="15">
+      <c r="F19" s="8"/>
+      <c r="G19" s="10">
         <v>2</v>
       </c>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="12" t="s">
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8">
         <f>SUM(E17:F24)</f>
         <v>5</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12">
+      <c r="F25" s="8"/>
+      <c r="G25" s="8">
         <f>SUM(G17:H24)</f>
         <v>9</v>
       </c>
-      <c r="H25" s="12"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="K5:P5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
@@ -4596,38 +4591,41 @@
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="M11:N11"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4635,279 +4633,279 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G1" s="8" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="J3" s="9" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="J3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="13"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
       <c r="J4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="8"/>
       <c r="J5" s="14" t="s">
         <v>1</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12" t="s">
+      <c r="N5" s="8"/>
+      <c r="O5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="12"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9">
         <v>3</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9">
         <v>3</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="J6" s="13" t="s">
+      <c r="H6" s="9"/>
+      <c r="J6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13">
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9">
         <v>5</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13">
+      <c r="N6" s="9"/>
+      <c r="O6" s="9">
         <v>5</v>
       </c>
-      <c r="P6" s="13"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9">
         <v>1</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9">
         <v>1</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="H7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8">
         <v>1</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="15">
+      <c r="F8" s="8"/>
+      <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+      <c r="H8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
         <v>1</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9">
         <v>5</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
+      <c r="H9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8">
         <f>SUM(E6:F10)</f>
         <v>6</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8">
         <f>SUM(G6:H10)</f>
         <v>10</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="J11" s="12" t="s">
+      <c r="H11" s="8"/>
+      <c r="J11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12">
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8">
         <f>SUM(M6:N10)</f>
         <v>5</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12">
+      <c r="N11" s="8"/>
+      <c r="O11" s="8">
         <f>SUM(O6:P10)</f>
         <v>5</v>
       </c>
-      <c r="P11" s="12"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+      <c r="P11" s="8"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="J13" s="12" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="J13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
         <v>16</v>
@@ -4925,20 +4923,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="8"/>
       <c r="J15" s="4" t="s">
         <v>8</v>
       </c>
@@ -4958,20 +4956,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
         <v>4</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9">
         <v>3</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="9"/>
       <c r="J16" s="4" t="s">
         <v>9</v>
       </c>
@@ -4991,159 +4989,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9">
         <v>1</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9">
         <v>0</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="9"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="15"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="12" t="s">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8">
         <f>SUM(E16:F23)</f>
         <v>5</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8">
         <f>SUM(G16:H23)</f>
         <v>3</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:N7"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="J3:P3"/>
@@ -5160,490 +5099,26 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:H23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="J3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="J4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="J5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="12"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13">
-        <v>2</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13">
-        <v>2</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="J6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13">
-        <v>4</v>
-      </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13">
-        <v>2</v>
-      </c>
-      <c r="P6" s="13"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13">
-        <v>3</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13">
-        <v>3</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="J7" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13">
-        <v>1</v>
-      </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13">
-        <v>1</v>
-      </c>
-      <c r="P7" s="13"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="15">
-        <v>2</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="J8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12">
-        <v>0</v>
-      </c>
-      <c r="N8" s="12"/>
-      <c r="O8" s="15">
-        <v>2</v>
-      </c>
-      <c r="P8" s="15"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12">
-        <f>SUM(E6:F10)</f>
-        <v>5</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12">
-        <f>SUM(G6:H10)</f>
-        <v>7</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="J11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12">
-        <f>SUM(M6:N10)</f>
-        <v>5</v>
-      </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12">
-        <f>SUM(O6:P10)</f>
-        <v>5</v>
-      </c>
-      <c r="P11" s="12"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="J13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="J15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="1">
-        <v>15</v>
-      </c>
-      <c r="L15" s="1">
-        <f>K15-G11</f>
-        <v>8</v>
-      </c>
-      <c r="M15" s="1">
-        <v>3</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13">
-        <v>5</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13">
-        <v>6</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="J16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="1">
-        <v>15</v>
-      </c>
-      <c r="L16" s="1">
-        <v>10</v>
-      </c>
-      <c r="M16" s="1">
-        <v>5</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="15"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12">
-        <f>SUM(E16:F23)</f>
-        <v>5</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12">
-        <f>SUM(G16:H23)</f>
-        <v>6</v>
-      </c>
-      <c r="H24" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:N9"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:F10"/>
@@ -5656,26 +5131,495 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B1:P29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="J3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="13"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="J4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="J5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9">
+        <v>2</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="J6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9">
+        <v>4</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9">
+        <v>2</v>
+      </c>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9">
+        <v>3</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="J7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9">
+        <v>1</v>
+      </c>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10">
+        <v>2</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="J8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="10">
+        <v>2</v>
+      </c>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8">
+        <f>SUM(E6:F10)</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8">
+        <f>SUM(G6:H10)</f>
+        <v>7</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="J11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8">
+        <f>SUM(M6:N10)</f>
+        <v>5</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8">
+        <f>SUM(O6:P10)</f>
+        <v>5</v>
+      </c>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="J13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="J15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="1">
+        <v>15</v>
+      </c>
+      <c r="L15" s="1">
+        <f>K15-G11</f>
+        <v>8</v>
+      </c>
+      <c r="M15" s="1">
+        <v>3</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
+        <v>5</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9">
+        <v>6</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="J16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="1">
+        <v>15</v>
+      </c>
+      <c r="L16" s="1">
+        <v>10</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8">
+        <f>SUM(E16:F23)</f>
+        <v>5</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8">
+        <f>SUM(G16:H23)</f>
+        <v>6</v>
+      </c>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="80">
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="J3:P3"/>
@@ -5692,469 +5636,26 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="J3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="J4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="J5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="12"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13">
-        <v>3</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13">
-        <v>3</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="J6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13">
-        <v>5</v>
-      </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13">
-        <v>5</v>
-      </c>
-      <c r="P6" s="13"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13">
-        <v>2</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13">
-        <v>2</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="15"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12">
-        <f>SUM(E6:F10)</f>
-        <v>5</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12">
-        <f>SUM(G6:H10)</f>
-        <v>5</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="J11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12">
-        <f>SUM(M6:N10)</f>
-        <v>5</v>
-      </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12">
-        <f>SUM(O6:P10)</f>
-        <v>5</v>
-      </c>
-      <c r="P11" s="12"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="J13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="J15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="1">
-        <v>15</v>
-      </c>
-      <c r="L15" s="1">
-        <f>K15-G11</f>
-        <v>10</v>
-      </c>
-      <c r="M15" s="1">
-        <v>5</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="J16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="1">
-        <v>15</v>
-      </c>
-      <c r="L16" s="1">
-        <v>10</v>
-      </c>
-      <c r="M16" s="1">
-        <v>5</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13">
-        <v>5</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13">
-        <v>5</v>
-      </c>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="15"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12">
-        <f>SUM(E16:F23)</f>
-        <v>5</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12">
-        <f>SUM(G16:H23)</f>
-        <v>5</v>
-      </c>
-      <c r="H24" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:N9"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:F10"/>
@@ -6167,26 +5668,469 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B1:P24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="J3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="13"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="J4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="J5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9">
+        <v>3</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9">
+        <v>3</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="J6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9">
+        <v>5</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9">
+        <v>5</v>
+      </c>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9">
+        <v>2</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8">
+        <f>SUM(E6:F10)</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8">
+        <f>SUM(G6:H10)</f>
+        <v>5</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="J11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8">
+        <f>SUM(M6:N10)</f>
+        <v>5</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8">
+        <f>SUM(O6:P10)</f>
+        <v>5</v>
+      </c>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="J13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="J15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="1">
+        <v>15</v>
+      </c>
+      <c r="L15" s="1">
+        <f>K15-G11</f>
+        <v>10</v>
+      </c>
+      <c r="M15" s="1">
+        <v>5</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="J16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="1">
+        <v>15</v>
+      </c>
+      <c r="L16" s="1">
+        <v>10</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9">
+        <v>5</v>
+      </c>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8">
+        <f>SUM(E16:F23)</f>
+        <v>5</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8">
+        <f>SUM(G16:H23)</f>
+        <v>5</v>
+      </c>
+      <c r="H24" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="80">
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="J3:P3"/>
     <mergeCell ref="G1:K2"/>
@@ -6203,6 +6147,70 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6210,64 +6218,64 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="8" t="s">
+    <row r="1" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="L4" s="12" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="L4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
@@ -6275,20 +6283,20 @@
         <v>8</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="12"/>
+      <c r="M5" s="8"/>
       <c r="N5" s="4" t="s">
         <v>22</v>
       </c>
@@ -6296,11 +6304,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="1">
         <v>25</v>
       </c>
@@ -6308,20 +6316,20 @@
         <v>36</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="1">
         <v>25</v>
       </c>
       <c r="J6" s="1">
         <v>27</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="13"/>
+      <c r="M6" s="9"/>
       <c r="N6" s="1">
         <v>25</v>
       </c>
@@ -6329,11 +6337,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="1">
         <v>25</v>
       </c>
@@ -6341,20 +6349,20 @@
         <v>36</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="1">
         <v>25</v>
       </c>
       <c r="J7" s="1">
         <v>27</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="12"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="1">
         <v>25</v>
       </c>
@@ -6362,22 +6370,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -6392,15 +6400,15 @@
         <v>19</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="12"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -6417,16 +6425,16 @@
         <v>0</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="12"/>
+      <c r="J11" s="8"/>
       <c r="K11" s="1">
         <f>E7+J7+O7</f>
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -6443,10 +6451,10 @@
         <v>0</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="12"/>
+      <c r="J12" s="8"/>
       <c r="K12" s="1">
         <f>K11-K10</f>
         <v>16</v>
@@ -6454,6 +6462,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="F1:K2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
@@ -6462,16 +6480,6 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="F1:K2"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
